--- a/biology/Zoologie/Chien_enragé_(court_métrage)/Chien_enragé_(court_métrage).xlsx
+++ b/biology/Zoologie/Chien_enragé_(court_métrage)/Chien_enragé_(court_métrage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chien_enrag%C3%A9_(court_m%C3%A9trage)</t>
+          <t>Chien_enragé_(court_métrage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chien enragé (The Mad Dog) est un dessin animé de Mickey Mouse produit par Walt Disney pour Columbia Pictures et sorti le 5 mars 1932.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chien_enrag%C3%A9_(court_m%C3%A9trage)</t>
+          <t>Chien_enragé_(court_métrage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mickey a décidé que c'était le jour du bain pour Pluto. Mickey a déjà réussi à le mettre dans la baignoire et à le savonner. Mais le chien décide de sortir brusquement du bain. Cette sortie fait chuter Mickey avec les serviettes dans l'eau. Le savon est éjecté en l'air et retombe dans la gueule de Pluto. Mickey décide de le faire sortir bien qu'il émette des bulles. Dans la rue, les passants qui voient Pluto pensent qu'il est enragé et lui jettent des objets pour le faire déguerpir. L'employé de la fourrière Pat Hibulaire arrive dans les parages et tente d'abattre Pluto. Mickey parvient à le sauver de justesse mais la poursuite continue.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chien_enrag%C3%A9_(court_m%C3%A9trage)</t>
+          <t>Chien_enragé_(court_métrage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : The Mad Dog
-Autres titres[1] :
+Autres titres :
 Allemagne : Der Tolle Hund 
 France : Chien enragé
 Suède : Musse Pigg och hans galna hund
@@ -555,7 +571,7 @@
 Voix : Walt Disney (Mickey)
 Producteur : Walt Disney, John Sutherland
 Distributeur : Columbia Pictures
-Date de sortie : 5 mars 1932[2]
+Date de sortie : 5 mars 1932
 Format d'image : Noir et Blanc
 Musique : Bert Lewis
 Son : Mono
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chien_enrag%C3%A9_(court_m%C3%A9trage)</t>
+          <t>Chien_enragé_(court_métrage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thème de ce film sera repris dans un grand classique en couleur de Mickey Mouse : Mickey et le Phoque (1948)
 </t>
